--- a/src/main/resources/EID_MPR.xlsx
+++ b/src/main/resources/EID_MPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neco it\sochbackend\JavaServices-Lab\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E3989F-C56D-479F-9F9B-CAD8645EB49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D8D46C-9A3D-4122-BBD9-D30475BE4ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" xr2:uid="{EFD1E0A6-55DF-3B49-B53C-CB577C2C2114}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>2 Months</t>
   </si>
@@ -42,12 +42,6 @@
     <t>ICTC center name</t>
   </si>
   <si>
-    <t>ICTC State Name</t>
-  </si>
-  <si>
-    <t>ICTC district Name</t>
-  </si>
-  <si>
     <t>No of live birth</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>No of infants found negative for HIV within two months of birth</t>
   </si>
   <si>
-    <t>Out of J, No of infants repeat tested for confirmation</t>
-  </si>
-  <si>
     <t>Out of repeat tested, found confirmed positive</t>
   </si>
   <si>
@@ -81,24 +72,12 @@
     <t>DBS screening-1 found Non reactive between 6 week to &lt;6 months</t>
   </si>
   <si>
-    <t>Out of J, Symptomatic and tested for DNA PCR</t>
-  </si>
-  <si>
     <t>Confirm positive out of tested</t>
   </si>
   <si>
-    <t>Out of I, found Reactive between 6 week to &lt;6 months</t>
-  </si>
-  <si>
-    <t>Out of L repeate tested for TNA PCR for confirmation</t>
-  </si>
-  <si>
     <t>Positive babies link to ARTc</t>
   </si>
   <si>
-    <t>Out of M, Repeat tested for DBS TNA PCR for confirmation</t>
-  </si>
-  <si>
     <t>Baby tested for rapid antibody</t>
   </si>
   <si>
@@ -114,15 +93,6 @@
     <t>Out of Y, Symptomatic and tested for TNA PCR</t>
   </si>
   <si>
-    <t>Out of X, Confirm positive out of tested</t>
-  </si>
-  <si>
-    <t>Out of Z, found Reactive</t>
-  </si>
-  <si>
-    <t>Out of AA repeate tested for TNA PCR for confirmation</t>
-  </si>
-  <si>
     <t>Out of repeat tested (AC) found positive</t>
   </si>
   <si>
@@ -135,21 +105,6 @@
     <t>DBS (Screening-1) sample tested for &gt;12 months to 18 Months baby</t>
   </si>
   <si>
-    <t>Out of V, Symptomatic and tested for TNA PCR</t>
-  </si>
-  <si>
-    <t>Out of U, found Reactive</t>
-  </si>
-  <si>
-    <t>Out of AF, tested for Antibody-1</t>
-  </si>
-  <si>
-    <t>Out of AF, tested for Antibody-2</t>
-  </si>
-  <si>
-    <t>Out of AF, tested for Antibody-3</t>
-  </si>
-  <si>
     <t>Out of antibody-1 tested, found positive</t>
   </si>
   <si>
@@ -165,12 +120,6 @@
     <t>Tested for quantitative HIV-1 TNA PCR (Viral load)</t>
   </si>
   <si>
-    <t>Found positive from any- AL_AM_AN_AO</t>
-  </si>
-  <si>
-    <t>Found negative from AL_AM_AN_AO</t>
-  </si>
-  <si>
     <t>MPR Month-Year</t>
   </si>
   <si>
@@ -181,6 +130,60 @@
   </si>
   <si>
     <t>Lab Name</t>
+  </si>
+  <si>
+    <t>Out of M, No of infants repeat tested for confirmation</t>
+  </si>
+  <si>
+    <t>Out of M, Symptomatic and tested for DNA PCR</t>
+  </si>
+  <si>
+    <t>Out of L, found Reactive between 6 week to &lt;6 months</t>
+  </si>
+  <si>
+    <t>Out of O repeate tested for TNA PCR for confirmation</t>
+  </si>
+  <si>
+    <t>Out of P, Repeat tested for DBS TNA PCR for confirmation</t>
+  </si>
+  <si>
+    <t>Out of AB, Symptomatic and tested for TNA PCR</t>
+  </si>
+  <si>
+    <t>Out of AA, Confirm positive out of tested</t>
+  </si>
+  <si>
+    <t>Out of AC, found Reactive</t>
+  </si>
+  <si>
+    <t>Out of AD repeate tested for TNA PCR for confirmation</t>
+  </si>
+  <si>
+    <t>Out of X, found Reactive</t>
+  </si>
+  <si>
+    <t>Out of AI, tested for Antibody-1</t>
+  </si>
+  <si>
+    <t>Out of AI, tested for Antibody-2</t>
+  </si>
+  <si>
+    <t>Out of AI, tested for Antibody-3</t>
+  </si>
+  <si>
+    <t>Found positive from any- AP_AQ_AR_AS</t>
+  </si>
+  <si>
+    <t>Found negative from AP_AQ_AR_AS</t>
+  </si>
+  <si>
+    <t>Out of AK, confirmed Positive out of tested</t>
+  </si>
+  <si>
+    <t>ICTC Center State Name</t>
+  </si>
+  <si>
+    <t>ICTC Center District Name</t>
   </si>
 </sst>
 </file>
@@ -304,19 +307,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,6 +327,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,15 +649,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AY78"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="266" zoomScaleNormal="266" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -683,15 +689,15 @@
       <c r="Y1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="9"/>
       <c r="AI1" s="8" t="s">
         <v>3</v>
       </c>
@@ -710,223 +716,228 @@
       <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
       <c r="AX1" s="6"/>
-      <c r="AY1" s="7"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="7"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:52" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AI1:AY1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="Y1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
